--- a/6-data-profiling-and-exploration/python-in-excel-data-profiling-finish.xlsx
+++ b/6-data-profiling-and-exploration/python-in-excel-data-profiling-finish.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/6-data-profiling-and-exploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\6-data-profiling-and-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{1F400DA9-AE24-4CC8-A87B-1275C71802DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E8B537-833E-4C92-AFF9-1FCD2F73932A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6E4A82-4994-4CF8-8600-28BF107C738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="2" r:id="rId1"/>
-    <sheet name="profiling" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="16">
+  <futureMetadata name="XLRICHVALUE" count="21">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -164,13 +164,48 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="16">
+  <valueMetadata count="21">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -219,6 +254,21 @@
     <bk>
       <rc t="2" v="15"/>
     </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
@@ -226,7 +276,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -243,7 +293,7 @@
   <pythonScripts>
     <pythonScript>
       <code>sales_df = xl(%P2%, headers=True)
-sales_df.head()</code>
+sales_df.head(10)</code>
     </pythonScript>
     <pythonScript>
       <code>sales_df.tail()</code>
@@ -252,7 +302,7 @@
       <code>sales_df.sample()</code>
     </pythonScript>
     <pythonScript>
-      <code>sales_df.describe()</code>
+      <code>sales_df.describe(percentiles=[.1, .5, .9])</code>
     </pythonScript>
     <pythonScript>
       <code>sales_df.describe(include='all')</code>
@@ -460,8 +510,159 @@
 </rvTypesInfo>
 </file>
 
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="12">
+    <v t="s"/>
+    <v t="s">order_id</v>
+    <v t="s">customer_id</v>
+    <v t="s">product_id</v>
+    <v t="s">product_name</v>
+    <v t="s">category</v>
+    <v t="s">...</v>
+    <v t="s">quantity</v>
+    <v t="s">order_date</v>
+    <v t="s">customer_age</v>
+    <v t="s">customer_gender</v>
+    <v t="s">country</v>
+    <v t="s">count</v>
+    <v>500</v>
+    <v>500</v>
+    <v>500</v>
+    <v>500</v>
+    <v>500</v>
+    <v t="s">...</v>
+    <v>500</v>
+    <v>500</v>
+    <v>500</v>
+    <v>500</v>
+    <v>500</v>
+    <v t="s">unique</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v>10</v>
+    <v>3</v>
+    <v t="s">...</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v>2</v>
+    <v>6</v>
+    <v t="s">top</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">Laptop</v>
+    <v t="s">Accessories</v>
+    <v t="s">...</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">Male</v>
+    <v t="s">Canada</v>
+    <v t="s">freq</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v>61</v>
+    <v>199</v>
+    <v t="s">...</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v>262</v>
+    <v>93</v>
+    <v t="s">mean</v>
+    <v>250.5</v>
+    <v>101.312</v>
+    <v>25.36</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v>2.5739999999999998</v>
+    <v t="r">16</v>
+    <v>41.38</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">25%</v>
+    <v>125.75</v>
+    <v>47.75</v>
+    <v>14</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v>2</v>
+    <v t="r">21</v>
+    <v>28</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">50%</v>
+    <v>250.5</v>
+    <v>106</v>
+    <v>25</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v>3</v>
+    <v t="r">10</v>
+    <v>42</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">75%</v>
+    <v>375.25</v>
+    <v>150</v>
+    <v>37</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v>4</v>
+    <v t="r">22</v>
+    <v>53</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">max</v>
+    <v>500</v>
+    <v>200</v>
+    <v>50</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v>4</v>
+    <v t="r">19</v>
+    <v>64</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">std</v>
+    <v>144.4818327679989</v>
+    <v>58.975001123484788</v>
+    <v>14.087985756855764</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+    <v t="s">...</v>
+    <v>1.1450529649693799</v>
+    <v t="r">20</v>
+    <v>13.749826014566938</v>
+    <v t="r">20</v>
+    <v t="r">20</v>
+  </a>
+</arrayData>
+</file>
+
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="26">
   <rv s="0">
     <fb>44879</fb>
     <v>0</v>
@@ -480,6 +681,26 @@
   </rv>
   <rv s="0">
     <fb>44619</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>44683</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>44562</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>44800</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>44851</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>44657</fb>
     <v>0</v>
   </rv>
   <rv s="0">
@@ -503,7 +724,7 @@
     <v>0</v>
   </rv>
   <rv s="0">
-    <fb>44869</fb>
+    <fb>44664</fb>
     <v>0</v>
   </rv>
   <rv s="0">
@@ -511,8 +732,20 @@
     <v>1</v>
   </rv>
   <rv s="0">
-    <fb>44562</fb>
+    <fb>44595.9</fb>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <fb>44884.2</fb>
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <fb>44926</fb>
     <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>4</v>
   </rv>
   <rv s="0">
     <fb>44651</fb>
@@ -522,55 +755,126 @@
     <fb>44820</fb>
     <v>0</v>
   </rv>
-  <rv s="0">
-    <fb>44926</fb>
+  <rv s="1">
     <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>3</v>
+    <v>23</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          order_id  customer_id  product_id product_name     category  \
+count   500.000000   500.000000  500.000000          500          500   
+unique         NaN          NaN         NaN           10            3   
+top            NaN          NaN  ...</v>
+    <v>24</v>
+    <v>5</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="provider" t="spb"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="2">
+  <spbData count="6">
     <spb s="0">
       <v>1</v>
     </spb>
     <spb s="0">
       <v>2</v>
     </spb>
+    <spb s="1">
+      <v>11</v>
+      <v>11</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+    <spb s="0">
+      <v>3</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <s>
     <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
   </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="2">
+  <dxfs count="3">
     <x:dxf>
       <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
   </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
   <richStyles>
     <rSty dxfid="0"/>
     <rSty dxfid="1"/>
+    <rSty dxfid="2">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
   </richStyles>
 </richStyleSheet>
 </file>
@@ -914,24 +1218,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="8.40625" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.953125" customWidth="1"/>
-    <col min="11" max="11" width="7.953125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.48046875" customWidth="1"/>
+    <col min="5" max="5" width="10.14453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.92578125" customWidth="1"/>
+    <col min="7" max="7" width="8.48046875" customWidth="1"/>
+    <col min="8" max="8" width="10.48046875" customWidth="1"/>
+    <col min="9" max="9" width="13.14453125" customWidth="1"/>
+    <col min="10" max="10" width="15.9609375" customWidth="1"/>
+    <col min="11" max="11" width="7.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1001,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="M2" t="str" cm="1">
-        <f t="array" ref="M2:W7">_xlfn._xlws.PY(0,0,sales[#All])</f>
+        <f t="array" ref="M2:W12">_xlfn._xlws.PY(0,0,sales[#All])</f>
         <v>order_id</v>
       </c>
       <c r="N2" t="str">
@@ -1035,7 +1341,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1103,7 +1409,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1171,7 +1477,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1239,7 +1545,7 @@
         <v>UK</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1307,7 +1613,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1375,7 +1681,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1409,8 +1715,41 @@
       <c r="K8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>199</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="R8">
+        <v>130</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" vm="6">
+        <v>44683</v>
+      </c>
+      <c r="U8">
+        <v>38</v>
+      </c>
+      <c r="V8" t="str">
+        <v>Female</v>
+      </c>
+      <c r="W8" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1444,8 +1783,41 @@
       <c r="K9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>160</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="R9">
+        <v>251</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" vm="7">
+        <v>44562</v>
+      </c>
+      <c r="U9">
+        <v>23</v>
+      </c>
+      <c r="V9" t="str">
+        <v>Female</v>
+      </c>
+      <c r="W9" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1479,8 +1851,41 @@
       <c r="K10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="R10">
+        <v>776</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10" vm="8">
+        <v>44800</v>
+      </c>
+      <c r="U10">
+        <v>23</v>
+      </c>
+      <c r="V10" t="str">
+        <v>Female</v>
+      </c>
+      <c r="W10" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1514,8 +1919,41 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>138</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11" t="str">
+        <v>T-shirt</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="R11">
+        <v>141</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" vm="9">
+        <v>44851</v>
+      </c>
+      <c r="U11">
+        <v>21</v>
+      </c>
+      <c r="V11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="W11" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1549,8 +1987,41 @@
       <c r="K12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>78</v>
+      </c>
+      <c r="O12">
+        <v>34</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="R12">
+        <v>826</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" vm="10">
+        <v>44657</v>
+      </c>
+      <c r="U12">
+        <v>47</v>
+      </c>
+      <c r="V12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="W12" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1585,7 +2056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1620,7 +2091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1655,7 +2126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1690,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1725,7 +2196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1760,7 +2231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1795,7 +2266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1830,7 +2301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1865,7 +2336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1900,7 +2371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1935,7 +2406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1970,7 +2441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2005,7 +2476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2040,7 +2511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2075,7 +2546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2110,7 +2581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2145,7 +2616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2180,7 +2651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2215,7 +2686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2250,7 +2721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2285,7 +2756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2320,7 +2791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2355,7 +2826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2390,7 +2861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2425,7 +2896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2460,7 +2931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2495,7 +2966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2530,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2565,7 +3036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2600,7 +3071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2635,7 +3106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2670,7 +3141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2705,7 +3176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2740,7 +3211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2775,7 +3246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2810,7 +3281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2845,7 +3316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2880,7 +3351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2915,7 +3386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2950,7 +3421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2985,7 +3456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3020,7 +3491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3055,7 +3526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3090,7 +3561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3125,7 +3596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3160,7 +3631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3195,7 +3666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3230,7 +3701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3265,7 +3736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3300,7 +3771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3335,7 +3806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3370,7 +3841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3405,7 +3876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3440,7 +3911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3475,7 +3946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3510,7 +3981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3545,7 +4016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3580,7 +4051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3615,7 +4086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3650,7 +4121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3685,7 +4156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3720,7 +4191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3755,7 +4226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3790,7 +4261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3825,7 +4296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3860,7 +4331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3895,7 +4366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3930,7 +4401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3965,7 +4436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4000,7 +4471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4035,7 +4506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4070,7 +4541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4105,7 +4576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4140,7 +4611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4175,7 +4646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4210,7 +4681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4245,7 +4716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4280,7 +4751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4315,7 +4786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4350,7 +4821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4385,7 +4856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4420,7 +4891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4455,7 +4926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4490,7 +4961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4525,7 +4996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4560,7 +5031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4595,7 +5066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4630,7 +5101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4665,7 +5136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4700,7 +5171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4735,7 +5206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4770,7 +5241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4805,7 +5276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4840,7 +5311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4875,7 +5346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4910,7 +5381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4945,7 +5416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4980,7 +5451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5015,7 +5486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5050,7 +5521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5085,7 +5556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5120,7 +5591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5155,7 +5626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5190,7 +5661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5225,7 +5696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5260,7 +5731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5295,7 +5766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5330,7 +5801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5365,7 +5836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5400,7 +5871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5435,7 +5906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5470,7 +5941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5505,7 +5976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5540,7 +6011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5575,7 +6046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5610,7 +6081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5645,7 +6116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5680,7 +6151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5715,7 +6186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5750,7 +6221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5785,7 +6256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5820,7 +6291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5855,7 +6326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5890,7 +6361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5925,7 +6396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5960,7 +6431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5995,7 +6466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6030,7 +6501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6065,7 +6536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6100,7 +6571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6135,7 +6606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6170,7 +6641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6205,7 +6676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6240,7 +6711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6275,7 +6746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6310,7 +6781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6345,7 +6816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6380,7 +6851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6415,7 +6886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6450,7 +6921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6485,7 +6956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6520,7 +6991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6555,7 +7026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6590,7 +7061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6625,7 +7096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6660,7 +7131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6695,7 +7166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6730,7 +7201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6765,7 +7236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6800,7 +7271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6835,7 +7306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6870,7 +7341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6905,7 +7376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6940,7 +7411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6975,7 +7446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7010,7 +7481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7045,7 +7516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7080,7 +7551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7115,7 +7586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7150,7 +7621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7185,7 +7656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7220,7 +7691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7255,7 +7726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7290,7 +7761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7325,7 +7796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7360,7 +7831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7395,7 +7866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7430,7 +7901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7465,7 +7936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7500,7 +7971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7535,7 +8006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7570,7 +8041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7605,7 +8076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7640,7 +8111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7675,7 +8146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7710,7 +8181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7745,7 +8216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7780,7 +8251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7815,7 +8286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7850,7 +8321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7885,7 +8356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7920,7 +8391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7955,7 +8426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7990,7 +8461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8025,7 +8496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8060,7 +8531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8095,7 +8566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8130,7 +8601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8165,7 +8636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8200,7 +8671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8235,7 +8706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8270,7 +8741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8305,7 +8776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8340,7 +8811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8375,7 +8846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8410,7 +8881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8445,7 +8916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8480,7 +8951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8515,7 +8986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8550,7 +9021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8585,7 +9056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8620,7 +9091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8655,7 +9126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8690,7 +9161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8725,7 +9196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8760,7 +9231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8795,7 +9266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8830,7 +9301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8865,7 +9336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8900,7 +9371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8935,7 +9406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8970,7 +9441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9005,7 +9476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9040,7 +9511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9075,7 +9546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9110,7 +9581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9145,7 +9616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9180,7 +9651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9215,7 +9686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9250,7 +9721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9285,7 +9756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9320,7 +9791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9355,7 +9826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9390,7 +9861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9425,7 +9896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9460,7 +9931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9495,7 +9966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9530,7 +10001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9565,7 +10036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9600,7 +10071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9635,7 +10106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9670,7 +10141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9705,7 +10176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9740,7 +10211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9775,7 +10246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9810,7 +10281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9845,7 +10316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9880,7 +10351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9915,7 +10386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9950,7 +10421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9985,7 +10456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10020,7 +10491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10055,7 +10526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10090,7 +10561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10125,7 +10596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10160,7 +10631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10195,7 +10666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10230,7 +10701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10265,7 +10736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10300,7 +10771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10335,7 +10806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10370,7 +10841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10405,7 +10876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10440,7 +10911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10475,7 +10946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10510,7 +10981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10545,7 +11016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10580,7 +11051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10615,7 +11086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10650,7 +11121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10685,7 +11156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10720,7 +11191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10755,7 +11226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10790,7 +11261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10825,7 +11296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10860,7 +11331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10895,7 +11366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10930,7 +11401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10965,7 +11436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11000,7 +11471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11035,7 +11506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11070,7 +11541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11105,7 +11576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11140,7 +11611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11175,7 +11646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11210,7 +11681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11245,7 +11716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11280,7 +11751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11315,7 +11786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11350,7 +11821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11385,7 +11856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11420,7 +11891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11455,7 +11926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11490,7 +11961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11525,7 +11996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11560,7 +12031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11595,7 +12066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11630,7 +12101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11665,7 +12136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11700,7 +12171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11735,7 +12206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11770,7 +12241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11805,7 +12276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11840,7 +12311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11875,7 +12346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11910,7 +12381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11945,7 +12416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11980,7 +12451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12015,7 +12486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12050,7 +12521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12085,7 +12556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12120,7 +12591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12155,7 +12626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12190,7 +12661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12225,7 +12696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12260,7 +12731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12295,7 +12766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12330,7 +12801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12365,7 +12836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12400,7 +12871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12435,7 +12906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12470,7 +12941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12505,7 +12976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12540,7 +13011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12575,7 +13046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12610,7 +13081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12645,7 +13116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12680,7 +13151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12715,7 +13186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12750,7 +13221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12785,7 +13256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12820,7 +13291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12855,7 +13326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12890,7 +13361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12925,7 +13396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12960,7 +13431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12995,7 +13466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13030,7 +13501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13065,7 +13536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13100,7 +13571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13135,7 +13606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13170,7 +13641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13205,7 +13676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13240,7 +13711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13275,7 +13746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13310,7 +13781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13345,7 +13816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13380,7 +13851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13415,7 +13886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13450,7 +13921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13485,7 +13956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13520,7 +13991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13555,7 +14026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13590,7 +14061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13625,7 +14096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13660,7 +14131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13695,7 +14166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>359</v>
       </c>
@@ -13730,7 +14201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>360</v>
       </c>
@@ -13765,7 +14236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>361</v>
       </c>
@@ -13800,7 +14271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13835,7 +14306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>363</v>
       </c>
@@ -13870,7 +14341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>364</v>
       </c>
@@ -13905,7 +14376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13940,7 +14411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13975,7 +14446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14010,7 +14481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14045,7 +14516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14080,7 +14551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14115,7 +14586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14150,7 +14621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14185,7 +14656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14220,7 +14691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14255,7 +14726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14290,7 +14761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14325,7 +14796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14360,7 +14831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14395,7 +14866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14430,7 +14901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14465,7 +14936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14500,7 +14971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>382</v>
       </c>
@@ -14535,7 +15006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>383</v>
       </c>
@@ -14570,7 +15041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14605,7 +15076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14640,7 +15111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14675,7 +15146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14710,7 +15181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14745,7 +15216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14780,7 +15251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>390</v>
       </c>
@@ -14815,7 +15286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>391</v>
       </c>
@@ -14850,7 +15321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>392</v>
       </c>
@@ -14885,7 +15356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>393</v>
       </c>
@@ -14920,7 +15391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>394</v>
       </c>
@@ -14955,7 +15426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>395</v>
       </c>
@@ -14990,7 +15461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15025,7 +15496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15060,7 +15531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15095,7 +15566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15130,7 +15601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15165,7 +15636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15200,7 +15671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15235,7 +15706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15270,7 +15741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15305,7 +15776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15340,7 +15811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15375,7 +15846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15410,7 +15881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15445,7 +15916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15480,7 +15951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A411">
         <v>410</v>
       </c>
@@ -15515,7 +15986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A412">
         <v>411</v>
       </c>
@@ -15550,7 +16021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A413">
         <v>412</v>
       </c>
@@ -15585,7 +16056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A414">
         <v>413</v>
       </c>
@@ -15620,7 +16091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A415">
         <v>414</v>
       </c>
@@ -15655,7 +16126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A416">
         <v>415</v>
       </c>
@@ -15690,7 +16161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A417">
         <v>416</v>
       </c>
@@ -15725,7 +16196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A418">
         <v>417</v>
       </c>
@@ -15760,7 +16231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A419">
         <v>418</v>
       </c>
@@ -15795,7 +16266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A420">
         <v>419</v>
       </c>
@@ -15830,7 +16301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A421">
         <v>420</v>
       </c>
@@ -15865,7 +16336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A422">
         <v>421</v>
       </c>
@@ -15900,7 +16371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A423">
         <v>422</v>
       </c>
@@ -15935,7 +16406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A424">
         <v>423</v>
       </c>
@@ -15970,7 +16441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16005,7 +16476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16040,7 +16511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16075,7 +16546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16110,7 +16581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16145,7 +16616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16180,7 +16651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16215,7 +16686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16250,7 +16721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16285,7 +16756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16320,7 +16791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16355,7 +16826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16390,7 +16861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16425,7 +16896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16460,7 +16931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16495,7 +16966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16530,7 +17001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16565,7 +17036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16600,7 +17071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16635,7 +17106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16670,7 +17141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A445">
         <v>444</v>
       </c>
@@ -16705,7 +17176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A446">
         <v>445</v>
       </c>
@@ -16740,7 +17211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A447">
         <v>446</v>
       </c>
@@ -16775,7 +17246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A448">
         <v>447</v>
       </c>
@@ -16810,7 +17281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A449">
         <v>448</v>
       </c>
@@ -16845,7 +17316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A450">
         <v>449</v>
       </c>
@@ -16880,7 +17351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A451">
         <v>450</v>
       </c>
@@ -16915,7 +17386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A452">
         <v>451</v>
       </c>
@@ -16950,7 +17421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A453">
         <v>452</v>
       </c>
@@ -16985,7 +17456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17020,7 +17491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17055,7 +17526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17090,7 +17561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17125,7 +17596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17160,7 +17631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17195,7 +17666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17230,7 +17701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17265,7 +17736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17300,7 +17771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17335,7 +17806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17370,7 +17841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17405,7 +17876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17440,7 +17911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17475,7 +17946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17510,7 +17981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A469">
         <v>468</v>
       </c>
@@ -17545,7 +18016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A470">
         <v>469</v>
       </c>
@@ -17580,7 +18051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A471">
         <v>470</v>
       </c>
@@ -17615,7 +18086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A472">
         <v>471</v>
       </c>
@@ -17650,7 +18121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A473">
         <v>472</v>
       </c>
@@ -17685,7 +18156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A474">
         <v>473</v>
       </c>
@@ -17720,7 +18191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A475">
         <v>474</v>
       </c>
@@ -17755,7 +18226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A476">
         <v>475</v>
       </c>
@@ -17790,7 +18261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A477">
         <v>476</v>
       </c>
@@ -17825,7 +18296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A478">
         <v>477</v>
       </c>
@@ -17860,7 +18331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A479">
         <v>478</v>
       </c>
@@ -17895,7 +18366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A480">
         <v>479</v>
       </c>
@@ -17930,7 +18401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A481">
         <v>480</v>
       </c>
@@ -17965,7 +18436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A482">
         <v>481</v>
       </c>
@@ -18000,7 +18471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A483">
         <v>482</v>
       </c>
@@ -18035,7 +18506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A484">
         <v>483</v>
       </c>
@@ -18070,7 +18541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18105,7 +18576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18140,7 +18611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18175,7 +18646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18210,7 +18681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18245,7 +18716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18280,7 +18751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18315,7 +18786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18350,7 +18821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18385,7 +18856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A494">
         <v>493</v>
       </c>
@@ -18420,7 +18891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18455,7 +18926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18490,7 +18961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18525,7 +18996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A498">
         <v>497</v>
       </c>
@@ -18560,7 +19031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A499">
         <v>498</v>
       </c>
@@ -18595,7 +19066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A500">
         <v>499</v>
       </c>
@@ -18630,7 +19101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A501">
         <v>500</v>
       </c>
@@ -18674,301 +19145,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE31FA3-EE64-48D1-8A1E-4032889893CB}">
-  <dimension ref="A1:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1EFAB-7C61-4540-A3F0-0269C34AD5F9}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.76953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.76953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.92578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.9609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:K6">_xlfn._xlws.PY(1,0)</f>
+        <f t="array" ref="A1:L6">_xlfn._xlws.PY(1,0)</f>
+        <v/>
+      </c>
+      <c r="B1" t="str">
         <v>order_id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>customer_id</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>product_id</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>product_name</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>category</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>unit_price</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>quantity</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>order_date</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>customer_age</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>customer_gender</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>country</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A2">
+        <v>495</v>
+      </c>
+      <c r="B2">
         <v>496</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>155</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>Jacket</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>Accessories</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>251</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2" vm="6">
+      <c r="I2" vm="11">
         <v>44741</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>29</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <v>Male</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>Germany</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A3">
+        <v>496</v>
+      </c>
+      <c r="B3">
         <v>497</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>66</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>41</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>Tablet</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>Clothing</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>526</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" vm="7">
+      <c r="I3" vm="12">
         <v>44843</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>36</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>Female</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>Canada</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A4">
+        <v>497</v>
+      </c>
+      <c r="B4">
         <v>498</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>169</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>Camera</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>Accessories</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>981</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4" vm="8">
+      <c r="I4" vm="13">
         <v>44881</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>54</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <v>Female</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>USA</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A5">
+        <v>498</v>
+      </c>
+      <c r="B5">
         <v>499</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>112</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>Sunglasses</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>Electronics</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>871</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" vm="9">
+      <c r="I5" vm="14">
         <v>44787</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>61</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>Male</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>France</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A6">
+        <v>499</v>
+      </c>
+      <c r="B6">
         <v>500</v>
       </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
       <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
         <v>28</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>Camera</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>Clothing</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>451</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6" vm="10">
+      <c r="I6" vm="15">
         <v>44876</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>34</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>Female</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <v>USA</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A8" t="str" cm="1">
-        <f t="array" ref="A8:K9">_xlfn._xlws.PY(2,0)</f>
+        <f t="array" ref="A8:L9">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="B8" t="str">
         <v>order_id</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v>customer_id</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>product_id</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>product_name</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>category</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>unit_price</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <v>quantity</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <v>order_date</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>customer_age</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <v>customer_gender</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <v>country</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A9">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Smartphone</v>
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
       </c>
       <c r="E9" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="F9">
-        <v>437</v>
+        <v>T-shirt</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Electronics</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" vm="11">
-        <v>44869</v>
-      </c>
-      <c r="I9">
-        <v>53</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Female</v>
+        <v>389</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" vm="16">
+        <v>44664</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
       </c>
       <c r="K9" t="str">
+        <v>Male</v>
+      </c>
+      <c r="L9" t="str">
         <v>Australia</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A11" t="str" cm="1">
         <f t="array" ref="A11:H19">_xlfn._xlws.PY(3,0)</f>
         <v/>
@@ -18995,7 +19491,7 @@
         <v>customer_age</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A12" t="str">
         <v>count</v>
       </c>
@@ -19021,7 +19517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A13" t="str">
         <v>mean</v>
       </c>
@@ -19040,14 +19536,14 @@
       <c r="F13">
         <v>2.5739999999999998</v>
       </c>
-      <c r="G13" vm="12">
+      <c r="G13" vm="17">
         <v>44738.993999999999</v>
       </c>
       <c r="H13">
         <v>41.38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A14" t="str">
         <v>min</v>
       </c>
@@ -19066,40 +19562,40 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" vm="13">
+      <c r="G14" vm="7">
         <v>44562</v>
       </c>
       <c r="H14">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A15" t="str">
-        <v>25%</v>
+        <v>10%</v>
       </c>
       <c r="B15">
-        <v>125.75</v>
+        <v>50.900000000000006</v>
       </c>
       <c r="C15">
-        <v>47.75</v>
+        <v>16.900000000000006</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>345</v>
+        <v>141</v>
       </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" vm="14">
-        <v>44651</v>
+        <v>1</v>
+      </c>
+      <c r="G15" vm="18">
+        <v>44595.9</v>
       </c>
       <c r="H15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A16" t="str">
         <v>50%</v>
       </c>
@@ -19118,40 +19614,40 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" vm="6">
+      <c r="G16" vm="11">
         <v>44741</v>
       </c>
       <c r="H16">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A17" t="str">
-        <v>75%</v>
+        <v>90%</v>
       </c>
       <c r="B17">
-        <v>375.25</v>
+        <v>450.1</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>45.100000000000023</v>
       </c>
       <c r="E17">
-        <v>821</v>
+        <v>928</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" vm="15">
-        <v>44820</v>
+      <c r="G17" vm="19">
+        <v>44884.2</v>
       </c>
       <c r="H17">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A18" t="str">
         <v>max</v>
       </c>
@@ -19170,14 +19666,14 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" vm="16">
+      <c r="G18" vm="20">
         <v>44926</v>
       </c>
       <c r="H18">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A19" t="str">
         <v>std</v>
       </c>
@@ -19203,517 +19699,66 @@
         <v>13.749826014566938</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A21" t="str" cm="1">
-        <f t="array" ref="A21:L32">_xlfn._xlws.PY(4,0)</f>
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <v>order_id</v>
-      </c>
-      <c r="C21" t="str">
-        <v>customer_id</v>
-      </c>
-      <c r="D21" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="E21" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="F21" t="str">
-        <v>category</v>
-      </c>
-      <c r="G21" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="H21" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="I21" t="str">
-        <v>order_date</v>
-      </c>
-      <c r="J21" t="str">
-        <v>customer_age</v>
-      </c>
-      <c r="K21" t="str">
-        <v>customer_gender</v>
-      </c>
-      <c r="L21" t="str">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A21" t="e" cm="1" vm="21">
+        <f t="array" ref="A21">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A25" t="str" cm="1">
+        <f t="array" ref="A25:B31">_xlfn._xlws.PY(5,0)</f>
         <v>country</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A22" t="str">
+      <c r="B25" t="str">
         <v>count</v>
       </c>
-      <c r="B22">
-        <v>500</v>
-      </c>
-      <c r="C22">
-        <v>500</v>
-      </c>
-      <c r="D22">
-        <v>500</v>
-      </c>
-      <c r="E22">
-        <v>500</v>
-      </c>
-      <c r="F22">
-        <v>500</v>
-      </c>
-      <c r="G22">
-        <v>500</v>
-      </c>
-      <c r="H22">
-        <v>500</v>
-      </c>
-      <c r="I22">
-        <v>500</v>
-      </c>
-      <c r="J22">
-        <v>500</v>
-      </c>
-      <c r="K22">
-        <v>500</v>
-      </c>
-      <c r="L22">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A23" t="str">
-        <v>unique</v>
-      </c>
-      <c r="B23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A24" t="str">
-        <v>top</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Laptop</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="G24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K24" t="str">
-        <v>Male</v>
-      </c>
-      <c r="L24" t="str">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A26" t="str">
         <v>Canada</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A25" t="str">
-        <v>freq</v>
-      </c>
-      <c r="B25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E25">
-        <v>61</v>
-      </c>
-      <c r="F25">
-        <v>199</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K25">
-        <v>262</v>
-      </c>
-      <c r="L25">
+      <c r="B26">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A26" t="str">
-        <v>mean</v>
-      </c>
-      <c r="B26">
-        <v>250.5</v>
-      </c>
-      <c r="C26">
-        <v>101.312</v>
-      </c>
-      <c r="D26">
-        <v>25.36</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G26">
-        <v>568.20399999999995</v>
-      </c>
-      <c r="H26">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="I26" vm="12">
-        <v>44738.993999999999</v>
-      </c>
-      <c r="J26">
-        <v>41.38</v>
-      </c>
-      <c r="K26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L26" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A27" t="str">
-        <v>min</v>
+        <v>Germany</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G27">
-        <v>51</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" vm="13">
-        <v>44562</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="K27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L27" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.65">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A28" t="str">
-        <v>25%</v>
+        <v>USA</v>
       </c>
       <c r="B28">
-        <v>125.75</v>
-      </c>
-      <c r="C28">
-        <v>47.75</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G28">
-        <v>345</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" vm="14">
-        <v>44651</v>
-      </c>
-      <c r="J28">
-        <v>28</v>
-      </c>
-      <c r="K28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.65">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A29" t="str">
-        <v>50%</v>
+        <v>Australia</v>
       </c>
       <c r="B29">
-        <v>250.5</v>
-      </c>
-      <c r="C29">
-        <v>106</v>
-      </c>
-      <c r="D29">
-        <v>25</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G29">
-        <v>558</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" vm="6">
-        <v>44741</v>
-      </c>
-      <c r="J29">
-        <v>42</v>
-      </c>
-      <c r="K29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L29" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A30" t="str">
-        <v>75%</v>
+        <v>France</v>
       </c>
       <c r="B30">
-        <v>375.25</v>
-      </c>
-      <c r="C30">
-        <v>150</v>
-      </c>
-      <c r="D30">
-        <v>37</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G30">
-        <v>821</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30" vm="15">
-        <v>44820</v>
-      </c>
-      <c r="J30">
-        <v>53</v>
-      </c>
-      <c r="K30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L30" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.65">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A31" t="str">
-        <v>max</v>
+        <v>UK</v>
       </c>
       <c r="B31">
-        <v>500</v>
-      </c>
-      <c r="C31">
-        <v>200</v>
-      </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G31">
-        <v>992</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31" vm="16">
-        <v>44926</v>
-      </c>
-      <c r="J31">
-        <v>64</v>
-      </c>
-      <c r="K31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L31" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A32" t="str">
-        <v>std</v>
-      </c>
-      <c r="B32">
-        <v>144.4818327679989</v>
-      </c>
-      <c r="C32">
-        <v>58.975001123484788</v>
-      </c>
-      <c r="D32">
-        <v>14.087985756855764</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G32">
-        <v>275.30178446399191</v>
-      </c>
-      <c r="H32">
-        <v>1.1450529649693799</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J32">
-        <v>13.749826014566938</v>
-      </c>
-      <c r="K32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L32" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A35" t="str" cm="1">
-        <f t="array" ref="A35:B41">_xlfn._xlws.PY(5,0)</f>
-        <v>country</v>
-      </c>
-      <c r="B35" t="str">
-        <v>count</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A36" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B36">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A37" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B37">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A38" t="str">
-        <v>USA</v>
-      </c>
-      <c r="B38">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A39" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B39">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A40" t="str">
-        <v>France</v>
-      </c>
-      <c r="B40">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A41" t="str">
-        <v>UK</v>
-      </c>
-      <c r="B41">
         <v>65</v>
       </c>
     </row>
